--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>%</t>
   </si>
@@ -199,6 +199,48 @@
   </si>
   <si>
     <t>I3.b Procesos a automatizar</t>
+  </si>
+  <si>
+    <t>R2.1 Implantar un plan de mejora de la infraestructura física y tecnológica a mediano plazo</t>
+  </si>
+  <si>
+    <t>R2.b Procesos por encima del tiempo estimado</t>
+  </si>
+  <si>
+    <t>R2.a Equipos tecnológicos no operativos</t>
+  </si>
+  <si>
+    <t>R2.2 Realizar un diagnóstico de los procesos que son impactados por la infraestructura tecnológica</t>
+  </si>
+  <si>
+    <t>C3.1 Realizar el diseño de las encuestas con la participación de usuarios a fin de obtener mayor información</t>
+  </si>
+  <si>
+    <t>C3.a Información no cubierta</t>
+  </si>
+  <si>
+    <t>C3.b Áreas temáticas cubiertas</t>
+  </si>
+  <si>
+    <t>C3.2 Actualizar el marco muestral maestro de áreas a fin de garantizar la representatividad obtenida de los datos estadísticos</t>
+  </si>
+  <si>
+    <t>C2.a Participación de sectores</t>
+  </si>
+  <si>
+    <t>C2.1 Promover el apoyo y la participación de los distintos sectores tanto gubernamentales como privados y de la ciudadanía en general, en las actividades censales.</t>
+  </si>
+  <si>
+    <t>C2.b Errores de cobertura</t>
+  </si>
+  <si>
+    <t>C2.2 Actualizar permanentemente la cartografía censal para brindar mayor precisión en la representación de la información estadística y geográfica</t>
+  </si>
+  <si>
+    <t>R1.a Porcentaje de ejecución del presupuesto asignado</t>
+  </si>
+  <si>
+    <t>R1.1 Modernizar e implementar el Sistema de Cuentas Nacionales</t>
   </si>
 </sst>
 </file>
@@ -339,7 +381,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -387,9 +429,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,9 +441,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,6 +451,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -426,17 +474,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -951,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1052,368 +1112,473 @@
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="38.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" ht="89.25">
-      <c r="B9" s="20"/>
-      <c r="C9" s="27" t="s">
+      <c r="E8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="38.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="89.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>75</v>
-      </c>
-      <c r="H9" s="8">
-        <v>85</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="63.75">
-      <c r="B10" s="25"/>
-      <c r="C10" s="28"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>75</v>
+      </c>
+      <c r="H10" s="8">
+        <v>85</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="63.75">
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>80</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <v>90</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="39.75" customHeight="1">
-      <c r="B11" s="21" t="s">
+    <row r="12" spans="2:9" ht="63.75">
+      <c r="B12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="2:9" ht="54" customHeight="1">
-      <c r="B12" s="22"/>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" ht="114.75">
-      <c r="B13" s="18"/>
-      <c r="C13" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>81</v>
+      </c>
+      <c r="H12" s="8">
+        <v>92</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="51">
+      <c r="B13" s="20"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="63.75">
-      <c r="B14" s="31"/>
-      <c r="C14" s="28"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="54" customHeight="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H14" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="89.25">
-      <c r="B15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="54" customHeight="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="H15" s="8">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="25.5">
-      <c r="B16" s="19"/>
-      <c r="C16" s="28"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="114.75">
+      <c r="B16" s="17"/>
+      <c r="C16" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G16" s="8">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="63.75">
-      <c r="B17" s="33"/>
-      <c r="C17" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="H17" s="8">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="38.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="28"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="89.25">
+      <c r="B18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G18" s="8">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H18" s="8">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1">
-      <c r="B19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>20</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="25.5">
+      <c r="B19" s="18"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="51">
-      <c r="B20" s="26"/>
-      <c r="C20" s="28"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="63.75">
+      <c r="B20" s="27"/>
+      <c r="C20" s="29" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="38.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
-        <v>21</v>
-      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>32</v>
+      </c>
+      <c r="H21" s="8">
+        <v>16</v>
+      </c>
       <c r="I21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="38.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="30" customHeight="1">
+      <c r="B22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H22" s="8">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="51">
+      <c r="B23" s="24"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="H23" s="8">
-        <v>20</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1">
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="38.25">
+      <c r="B24" s="24"/>
+      <c r="C24" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>25</v>
-      </c>
-      <c r="H24" s="8">
-        <v>10</v>
-      </c>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="38.25">
       <c r="B25" s="24"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>80</v>
+      </c>
+      <c r="H25" s="8">
+        <v>90</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="30" customHeight="1">
+      <c r="B26" s="24"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>30</v>
+      </c>
+      <c r="H26" s="8">
+        <v>20</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="30" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>25</v>
+      </c>
+      <c r="H27" s="8">
+        <v>10</v>
+      </c>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="2:9" ht="30" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G28" s="8">
         <v>100</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H28" s="8">
         <v>50</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I28" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="13">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>%</t>
   </si>
@@ -111,9 +111,6 @@
     <t>C1.b Evaluaciones de desempeño al Consejo Consultivo Nacional de Estadística (CCONE) como órgano de participación y concertación del sector no público.</t>
   </si>
   <si>
-    <t>C1.a Encuestas que midan el nivel de satisfacción de los usuarios.</t>
-  </si>
-  <si>
     <t>C1.3 Revisar y actualizar el reglamento del CCONE con el fin de lograr el cumplimiento eficaz de sus funciones.</t>
   </si>
   <si>
@@ -240,7 +237,25 @@
     <t>R1.a Porcentaje de ejecución del presupuesto asignado</t>
   </si>
   <si>
-    <t>R1.1 Modernizar e implementar el Sistema de Cuentas Nacionales</t>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1.1 Evaluar los requerimientos vinculados a los servicios requeridos por la comunidad</t>
+  </si>
+  <si>
+    <t>R1.b Compras de insumos efectuadas dentro del tiempo programado</t>
+  </si>
+  <si>
+    <t>R1.2 Validar las solicitudes de compra con el respaldo de la evidencia respectiva                                                    R1.3 Establecer que unidades operativas no cuentan con los insumos necesarios para brindar servicios en calidad y cantidad</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>C1.a Encuestas que midan el nivel de satisfacción de los usuarios</t>
   </si>
 </sst>
 </file>
@@ -381,7 +396,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,44 +441,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -471,32 +465,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1011,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1104,481 +1116,509 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="27.75" customHeight="1">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:9" ht="38.25">
+      <c r="B7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="20">
         <v>0.8</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="20">
         <v>0.9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="38.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="89.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="38.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0.24</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0.12</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="38.25">
+      <c r="B10" s="36"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
         <v>0.4</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H10" s="20">
         <v>0.2</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="89.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="29" t="s">
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="89.25">
+      <c r="B11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>75</v>
-      </c>
-      <c r="H10" s="8">
-        <v>85</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="63.75">
-      <c r="B11" s="23"/>
-      <c r="C11" s="30"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H11" s="8">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>42</v>
-      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="51">
-      <c r="B13" s="20"/>
-      <c r="C13" s="39"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="63.75">
+      <c r="B13" s="37"/>
+      <c r="C13" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="H13" s="8">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="54" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="51">
       <c r="B14" s="37"/>
-      <c r="C14" s="29" t="s">
-        <v>17</v>
-      </c>
+      <c r="C14" s="27"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
-      <c r="B15" s="36"/>
-      <c r="C15" s="30"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8">
+        <v>9</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="54" customHeight="1">
+      <c r="B16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>82</v>
+      </c>
+      <c r="H16" s="8">
+        <v>94</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>82</v>
-      </c>
-      <c r="H15" s="8">
-        <v>94</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="114.75">
-      <c r="B16" s="17"/>
-      <c r="C16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="8">
-        <v>10</v>
-      </c>
-      <c r="H16" s="8">
-        <v>20</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="63.75">
-      <c r="B17" s="26"/>
-      <c r="C17" s="30"/>
+    </row>
+    <row r="17" spans="2:9" ht="114.75">
+      <c r="B17" s="16"/>
+      <c r="C17" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8">
+        <v>20</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>22</v>
-      </c>
-      <c r="H17" s="8">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="89.25">
-      <c r="B18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="18" spans="2:9" ht="63.75">
+      <c r="B18" s="19"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H18" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="25.5">
-      <c r="B19" s="18"/>
-      <c r="C19" s="30"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="89.25">
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3</v>
+      </c>
+      <c r="H19" s="8">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>72</v>
-      </c>
-      <c r="H19" s="8">
-        <v>84</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="63.75">
-      <c r="B20" s="27"/>
-      <c r="C20" s="29" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="20" spans="2:9" ht="25.5">
+      <c r="B20" s="17"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H20" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="38.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="63.75">
+      <c r="B21" s="32"/>
+      <c r="C21" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="8">
+        <v>68</v>
+      </c>
+      <c r="H21" s="8">
+        <v>77</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="38.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
         <v>32</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="8">
         <v>16</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1">
-      <c r="B22" s="21" t="s">
+      <c r="I22" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1">
+      <c r="B23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>63</v>
-      </c>
-      <c r="H22" s="8">
-        <v>75</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="51">
-      <c r="B23" s="24"/>
-      <c r="C23" s="30"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>63</v>
+      </c>
+      <c r="H23" s="8">
+        <v>75</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>71</v>
-      </c>
-      <c r="H23" s="8">
-        <v>83</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="38.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="29" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="24" spans="2:9" ht="51">
+      <c r="B24" s="30"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>71</v>
+      </c>
+      <c r="H24" s="8">
+        <v>83</v>
+      </c>
       <c r="I24" s="6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="24"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>80</v>
-      </c>
-      <c r="H25" s="8">
-        <v>90</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
       <c r="I25" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="30" customHeight="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="31"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="38.25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H26" s="8">
-        <v>20</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="24"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H27" s="8">
-        <v>10</v>
-      </c>
-      <c r="I27" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>25</v>
+      </c>
+      <c r="H28" s="8">
+        <v>10</v>
+      </c>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" customHeight="1">
+      <c r="B29" s="31"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="8">
+      <c r="F29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="8">
         <v>100</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I29" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C22:C23"/>
+  <mergeCells count="15">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -234,9 +234,6 @@
     <t>C2.2 Actualizar permanentemente la cartografía censal para brindar mayor precisión en la representación de la información estadística y geográfica</t>
   </si>
   <si>
-    <t>R1.a Porcentaje de ejecución del presupuesto asignado</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>C1.a Encuestas que midan el nivel de satisfacción de los usuarios</t>
+  </si>
+  <si>
+    <t>R1.a Ejecución del presupuesto asignado</t>
   </si>
 </sst>
 </file>
@@ -459,55 +459,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1117,15 +1117,15 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
@@ -1137,15 +1137,15 @@
         <v>0.9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="38.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>57</v>
@@ -1185,8 +1185,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="23"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
         <v>56</v>
@@ -1205,15 +1205,15 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
@@ -1229,8 +1229,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="37"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -1249,8 +1249,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="37"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="5"/>
@@ -1271,8 +1271,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="37"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>65</v>
@@ -1291,8 +1291,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
-      <c r="B15" s="24"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="34" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5"/>
@@ -1313,10 +1313,10 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="54" customHeight="1">
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>61</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="17" spans="2:9" ht="114.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="5"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="18" spans="2:9" ht="63.75">
       <c r="B18" s="19"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -1380,7 +1380,7 @@
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5"/>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="20" spans="2:9" ht="25.5">
       <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
         <v>39</v>
@@ -1421,8 +1421,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="63.75">
-      <c r="B21" s="32"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="5"/>
@@ -1443,10 +1443,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="38.25">
-      <c r="B22" s="33"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>54</v>
@@ -1465,10 +1465,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5"/>
@@ -1489,8 +1489,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="30"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -1509,8 +1509,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="5"/>
@@ -1527,8 +1527,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
         <v>29</v>
@@ -1547,8 +1547,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="30"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>30</v>
@@ -1562,13 +1562,13 @@
       <c r="H27" s="8">
         <v>20</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="30"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>31</v>
@@ -1582,11 +1582,11 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="28"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
         <v>33</v>
@@ -1600,10 +1600,17 @@
       <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
@@ -1611,14 +1618,7 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C25:C29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747"/>
@@ -26,12 +26,12 @@
     <definedName name="P1._Crear_mística_y_nueva_cultura_organizativa__Objetivo">'[1]CMI-CE'!$E$77</definedName>
     <definedName name="P2._Desarrollar_liderazgo_en_todos_los_niveles_de_mando__Objetivo">'[1]CMI-CE'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>%</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>R1.a Ejecución del presupuesto asignado</t>
+  </si>
+  <si>
+    <t>2'500,000.000</t>
+  </si>
+  <si>
+    <t>2'000,000.000</t>
   </si>
 </sst>
 </file>
@@ -265,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€]* #,##0.00_ ;_ [$€]* \-#,##0.00_ ;_ [$€]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,8 +291,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,37 +305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF33"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,6 +358,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -377,19 +388,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -429,85 +427,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,11 +572,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
-          <cell r="H4">
-            <v>38748</v>
-          </cell>
-        </row>
         <row r="8">
           <cell r="E8" t="str">
             <v>F1. Incrementar el Valor Económico (Objetivo)</v>
@@ -1025,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1035,7 +1028,7 @@
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="8" width="8.28515625" customWidth="1"/>
     <col min="9" max="9" width="33.7109375" customWidth="1"/>
   </cols>
@@ -1117,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1130,10 +1123,10 @@
       <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.8</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.9</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1141,7 +1134,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="30"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="25"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
@@ -1150,19 +1143,19 @@
       <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>0.7</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>0.9</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1174,19 +1167,19 @@
       <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>0.24</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.12</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
         <v>56</v>
@@ -1194,10 +1187,10 @@
       <c r="F10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0.4</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>0.2</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1205,10 +1198,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="5"/>
@@ -1229,8 +1222,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -1249,7 +1242,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="33"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="24" t="s">
         <v>41</v>
       </c>
@@ -1271,7 +1264,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="33"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="25"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
@@ -1292,7 +1285,7 @@
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
       <c r="B15" s="37"/>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="5"/>
@@ -1314,7 +1307,7 @@
     </row>
     <row r="16" spans="2:9" ht="54" customHeight="1">
       <c r="B16" s="38"/>
-      <c r="C16" s="35"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5" t="s">
         <v>68</v>
       </c>
@@ -1336,7 +1329,7 @@
     </row>
     <row r="17" spans="2:9" ht="114.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="5"/>
@@ -1357,8 +1350,8 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="63.75">
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
         <v>44</v>
@@ -1380,7 +1373,7 @@
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5"/>
@@ -1402,7 +1395,7 @@
     </row>
     <row r="20" spans="2:9" ht="25.5">
       <c r="B20" s="17"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
         <v>39</v>
@@ -1421,8 +1414,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="63.75">
-      <c r="B21" s="22"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="5"/>
@@ -1443,8 +1436,8 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="38.25">
-      <c r="B22" s="23"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
@@ -1465,10 +1458,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5"/>
@@ -1489,8 +1482,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="27"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>48</v>
@@ -1509,8 +1502,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="5"/>
@@ -1520,15 +1513,19 @@
       <c r="F25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
         <v>29</v>
@@ -1547,8 +1544,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="27"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>30</v>
@@ -1562,13 +1559,13 @@
       <c r="H27" s="8">
         <v>20</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="27"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>31</v>
@@ -1582,11 +1579,11 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="36"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
         <v>33</v>
@@ -1600,18 +1597,10 @@
       <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -1619,7 +1608,16 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Matriz Estrateg" sheetId="18396" r:id="rId1"/>
+    <sheet name="Matriz Estrateg General" sheetId="18396" r:id="rId1"/>
+    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="F1._Generar_mayor_rentabilidad__Objetivo">'[1]CMI-CE'!$E$8</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
   <si>
     <t>%</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Personal</t>
   </si>
   <si>
-    <t>MATRIZ ESTRATÉGICA</t>
-  </si>
-  <si>
     <t>Financiera</t>
   </si>
   <si>
@@ -262,6 +260,12 @@
   </si>
   <si>
     <t>2'000,000.000</t>
+  </si>
+  <si>
+    <t>MATRIZ ESTRATÉGICA GENERAL</t>
+  </si>
+  <si>
+    <t>MATRIZ ESTRATÉGICA FUNCIONAL</t>
   </si>
 </sst>
 </file>
@@ -469,38 +473,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1035,7 +1039,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="9" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1057,7 +1061,7 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1100,25 +1104,25 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="32" t="s">
-        <v>12</v>
+      <c r="B7" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>0</v>
@@ -1130,15 +1134,15 @@
         <v>0.9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="33"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="25"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>0</v>
@@ -1150,19 +1154,19 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="38.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>0</v>
@@ -1174,15 +1178,15 @@
         <v>0.12</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>0</v>
@@ -1194,19 +1198,19 @@
         <v>0.2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
+      <c r="C11" s="34" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
@@ -1218,15 +1222,15 @@
         <v>85</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="36"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>0</v>
@@ -1238,17 +1242,17 @@
         <v>90</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="36"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>0</v>
@@ -1260,15 +1264,15 @@
         <v>92</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="36"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="25"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>0</v>
@@ -1280,17 +1284,17 @@
         <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
       <c r="B15" s="37"/>
-      <c r="C15" s="26" t="s">
-        <v>17</v>
+      <c r="C15" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
@@ -1302,17 +1306,17 @@
         <v>9</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="54" customHeight="1">
       <c r="B16" s="38"/>
-      <c r="C16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>0</v>
@@ -1324,20 +1328,20 @@
         <v>94</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="114.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="26" t="s">
-        <v>37</v>
+      <c r="C17" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="8">
         <v>10</v>
@@ -1346,15 +1350,15 @@
         <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="63.75">
       <c r="B18" s="18"/>
-      <c r="C18" s="28"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>0</v>
@@ -1366,22 +1370,22 @@
         <v>13</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="89.25">
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>18</v>
+      <c r="C19" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="8">
         <v>3</v>
@@ -1390,15 +1394,15 @@
         <v>5</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="25.5">
       <c r="B20" s="17"/>
-      <c r="C20" s="28"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>0</v>
@@ -1410,17 +1414,17 @@
         <v>84</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="63.75">
       <c r="B21" s="21"/>
-      <c r="C21" s="26" t="s">
-        <v>19</v>
+      <c r="C21" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>0</v>
@@ -1432,17 +1436,17 @@
         <v>77</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="38.25">
       <c r="B22" s="22"/>
-      <c r="C22" s="28"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>0</v>
@@ -1454,19 +1458,19 @@
         <v>16</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>20</v>
+      <c r="C23" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>0</v>
@@ -1478,15 +1482,15 @@
         <v>75</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="30"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>0</v>
@@ -1498,37 +1502,37 @@
         <v>83</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="26" t="s">
-        <v>21</v>
+      <c r="B25" s="27"/>
+      <c r="C25" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="G25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>76</v>
-      </c>
       <c r="I25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>0</v>
@@ -1540,15 +1544,15 @@
         <v>90</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="30"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>0</v>
@@ -1559,16 +1563,16 @@
       <c r="H27" s="8">
         <v>20</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>35</v>
+      <c r="I27" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="30"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>0</v>
@@ -1579,17 +1583,17 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="8">
         <v>100</v>
@@ -1597,10 +1601,17 @@
       <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I29" s="28"/>
+      <c r="I29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -1609,16 +1620,613 @@
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5">
+      <c r="A6" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63.75">
+      <c r="A7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="89.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="63.75">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="63.75">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="114.75">
+      <c r="A11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8">
+        <v>85</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="204">
+      <c r="A12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>80</v>
+      </c>
+      <c r="G12" s="8">
+        <v>90</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="76.5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>81</v>
+      </c>
+      <c r="G13" s="8">
+        <v>92</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="76.5">
+      <c r="A14" s="33"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51">
+      <c r="A15" s="37"/>
+      <c r="B15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="63.75">
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>82</v>
+      </c>
+      <c r="G16" s="8">
+        <v>94</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="140.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="63.75">
+      <c r="A18" s="18"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="102">
+      <c r="A19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="63.75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>72</v>
+      </c>
+      <c r="G20" s="8">
+        <v>84</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="89.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8">
+        <v>77</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="51">
+      <c r="A22" s="22"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8">
+        <v>16</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="38.25">
+      <c r="A23" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>63</v>
+      </c>
+      <c r="G23" s="8">
+        <v>75</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="51">
+      <c r="A24" s="27"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>71</v>
+      </c>
+      <c r="G24" s="8">
+        <v>83</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="38.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="51">
+      <c r="A26" s="27"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>80</v>
+      </c>
+      <c r="G26" s="8">
+        <v>90</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="38.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>30</v>
+      </c>
+      <c r="G27" s="8">
+        <v>20</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="25.5">
+      <c r="A28" s="27"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>25</v>
+      </c>
+      <c r="G28" s="8">
+        <v>10</v>
+      </c>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="8">
+        <v>100</v>
+      </c>
+      <c r="G29" s="8">
+        <v>50</v>
+      </c>
+      <c r="H29" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>%</t>
   </si>
@@ -266,6 +266,33 @@
   </si>
   <si>
     <t>MATRIZ ESTRATÉGICA FUNCIONAL</t>
+  </si>
+  <si>
+    <t>Reducir los costos de servicio con una adecuada, eficiente y óptima prestación del servicio requerido</t>
+  </si>
+  <si>
+    <t>Apoyar y realizar el procesamiento automatizado de los proyectos nacionales</t>
+  </si>
+  <si>
+    <t>Formular y mantener actualizado el Plan de tecnologias de información y Plan de contigencias informáticas del INEI</t>
+  </si>
+  <si>
+    <t>Formular directivas y estándares para el desarrollo de sistemas, bases de datos y administración de los recursos informáticos</t>
+  </si>
+  <si>
+    <t>Crear, configurar e implementar base de datos y banco de datos del INEI</t>
+  </si>
+  <si>
+    <t>Implementar "Politica pública para el uso y desarrollo de software libre en la administración pública"</t>
+  </si>
+  <si>
+    <t>Desarrollar e implementar los Sistemas de información del INEI</t>
+  </si>
+  <si>
+    <t>Investigar, evaluar y proponer la incorporación de nuevas tecnologías para el desarrollo de la institución</t>
+  </si>
+  <si>
+    <t>Elaborar y actualizar estándares para el desarrollo y documentación de Sistemas</t>
   </si>
 </sst>
 </file>
@@ -398,7 +425,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -468,6 +495,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,20 +536,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I29"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1114,10 +1147,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
@@ -1138,8 +1171,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="30"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>69</v>
@@ -1158,8 +1191,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="30"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1182,8 +1215,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
         <v>55</v>
@@ -1202,10 +1235,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5"/>
@@ -1226,8 +1259,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>24</v>
@@ -1246,8 +1279,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="33"/>
-      <c r="C13" s="24" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5"/>
@@ -1268,8 +1301,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="33"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1288,8 +1321,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="34" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5"/>
@@ -1310,8 +1343,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="54" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
@@ -1333,7 +1366,7 @@
     </row>
     <row r="17" spans="2:9" ht="114.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5"/>
@@ -1355,7 +1388,7 @@
     </row>
     <row r="18" spans="2:9" ht="63.75">
       <c r="B18" s="18"/>
-      <c r="C18" s="35"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
         <v>43</v>
@@ -1377,7 +1410,7 @@
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5"/>
@@ -1399,7 +1432,7 @@
     </row>
     <row r="20" spans="2:9" ht="25.5">
       <c r="B20" s="17"/>
-      <c r="C20" s="35"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -1419,7 +1452,7 @@
     </row>
     <row r="21" spans="2:9" ht="63.75">
       <c r="B21" s="21"/>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="5"/>
@@ -1441,7 +1474,7 @@
     </row>
     <row r="22" spans="2:9" ht="38.25">
       <c r="B22" s="22"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
@@ -1462,10 +1495,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="5"/>
@@ -1486,8 +1519,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="27"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>47</v>
@@ -1506,8 +1539,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="34" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="5"/>
@@ -1528,8 +1561,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
         <v>28</v>
@@ -1548,8 +1581,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="27"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>29</v>
@@ -1563,13 +1596,13 @@
       <c r="H27" s="8">
         <v>20</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="27"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
@@ -1583,11 +1616,11 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="36"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
         <v>32</v>
@@ -1601,16 +1634,10 @@
       <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I29" s="35"/>
+      <c r="I29" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
@@ -1620,6 +1647,12 @@
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1717,513 +1750,248 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="63.75">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>13</v>
+      <c r="B7" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="89.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="25"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="33" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="63.75">
-      <c r="A9" s="30"/>
-      <c r="B9" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="63.75">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="34"/>
+      <c r="B9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="114.75">
-      <c r="A11" s="32" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>15</v>
+      <c r="B11" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>75</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="38"/>
+      <c r="B13" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="16"/>
+      <c r="B15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="204">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>80</v>
-      </c>
-      <c r="G12" s="8">
-        <v>90</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="76.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>81</v>
-      </c>
-      <c r="G13" s="8">
-        <v>92</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="76.5">
-      <c r="A14" s="33"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8">
-        <v>8</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="51">
-      <c r="A15" s="37"/>
-      <c r="B15" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8">
-        <v>9</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="63.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>82</v>
-      </c>
-      <c r="G16" s="8">
-        <v>94</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="140.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="8">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8">
-        <v>20</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="18"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="102">
-      <c r="A19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8">
-        <v>5</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="63.75">
-      <c r="A20" s="17"/>
-      <c r="B20" s="35"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>72</v>
-      </c>
-      <c r="G20" s="8">
-        <v>84</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="89.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>68</v>
-      </c>
-      <c r="G21" s="8">
-        <v>77</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="22"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>32</v>
-      </c>
-      <c r="G22" s="8">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="38.25">
-      <c r="A23" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="31"/>
+      <c r="B22" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="31"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>63</v>
-      </c>
-      <c r="G23" s="8">
-        <v>75</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="51">
-      <c r="A24" s="27"/>
-      <c r="B24" s="35"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="31"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>71</v>
-      </c>
-      <c r="G24" s="8">
-        <v>83</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="38.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="51">
-      <c r="A26" s="27"/>
-      <c r="B26" s="36"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" hidden="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>80</v>
-      </c>
-      <c r="G26" s="8">
-        <v>90</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="38.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>30</v>
-      </c>
-      <c r="G27" s="8">
-        <v>20</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="27"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>25</v>
-      </c>
-      <c r="G28" s="8">
-        <v>10</v>
-      </c>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" ht="38.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="8">
-        <v>100</v>
-      </c>
-      <c r="G29" s="8">
-        <v>50</v>
-      </c>
-      <c r="H29" s="35"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Matriz Estrateg General" sheetId="18396" r:id="rId1"/>
-    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId2"/>
+    <sheet name="Matriz Estrateg General Mod" sheetId="18397" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -503,38 +503,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1147,10 +1147,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
@@ -1171,8 +1171,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>69</v>
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="26"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
@@ -1235,7 +1235,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="37"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="26"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
@@ -1279,8 +1279,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="37"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5"/>
@@ -1301,8 +1301,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="37"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="31"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="26"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
@@ -1539,7 +1539,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="25" t="s">
         <v>20</v>
       </c>
@@ -1561,8 +1561,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
         <v>28</v>
@@ -1581,8 +1581,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>29</v>
@@ -1601,8 +1601,8 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="31"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
@@ -1616,10 +1616,10 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="32"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="26"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
@@ -1638,6 +1638,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
@@ -1646,13 +1653,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1751,10 +1751,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1"/>
@@ -1765,8 +1765,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="33" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -1776,7 +1776,7 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
         <v>83</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="26"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -1800,7 +1800,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -1814,7 +1814,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A12" s="37"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="26"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="5"/>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="19" spans="1:8" ht="30.75" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
@@ -1902,7 +1902,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -1916,7 +1916,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="26"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -1926,7 +1926,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="31"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="40" t="s">
         <v>86</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="31"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="40"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1948,7 +1948,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="31"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="40"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
@@ -1958,7 +1958,7 @@
       <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="40"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
@@ -1968,7 +1968,7 @@
       <c r="H25" s="40"/>
     </row>
     <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="32"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="40"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -1979,6 +1979,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B9:B10"/>
@@ -1986,11 +1991,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Matriz Estrateg General" sheetId="18396" r:id="rId1"/>
-    <sheet name="Matriz Estrateg General Mod" sheetId="18397" r:id="rId2"/>
+    <sheet name="Matriz Estrategica General mod" sheetId="18398" r:id="rId2"/>
+    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="F1._Generar_mayor_rentabilidad__Objetivo">'[1]CMI-CE'!$E$8</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
   <si>
     <t>%</t>
   </si>
@@ -293,6 +294,30 @@
   </si>
   <si>
     <t>Elaborar y actualizar estándares para el desarrollo y documentación de Sistemas</t>
+  </si>
+  <si>
+    <t>Proceso interno</t>
+  </si>
+  <si>
+    <t>Financiero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendizaje y </t>
+  </si>
+  <si>
+    <t>crecimiento</t>
+  </si>
+  <si>
+    <t>F1. Supervisar los gastos y cumplir con el presupuesto financiero</t>
+  </si>
+  <si>
+    <t>F2. Disponer de una infraestructura tecnológica adecuada para la producción de sus actividades estadísticas</t>
+  </si>
+  <si>
+    <t>A1. Fortalecer el liderazgo y posicionamiento del INEI</t>
+  </si>
+  <si>
+    <t>A2. Fortalecer las capacidades del personal del INEI</t>
   </si>
 </sst>
 </file>
@@ -327,7 +352,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +456,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -497,18 +528,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,13 +570,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1147,10 +1202,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1"/>
@@ -1171,8 +1226,8 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>69</v>
@@ -1191,8 +1246,8 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1215,8 +1270,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6" t="s">
         <v>55</v>
@@ -1235,10 +1290,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5"/>
@@ -1259,8 +1314,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="36"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
         <v>24</v>
@@ -1279,8 +1334,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="36"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5"/>
@@ -1301,8 +1356,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="36"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6" t="s">
         <v>64</v>
@@ -1321,8 +1376,8 @@
       </c>
     </row>
     <row r="15" spans="2:9" ht="54" customHeight="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="25" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="5"/>
@@ -1343,8 +1398,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="54" customHeight="1">
-      <c r="B16" s="39"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="5" t="s">
         <v>67</v>
       </c>
@@ -1366,7 +1421,7 @@
     </row>
     <row r="17" spans="2:9" ht="114.75">
       <c r="B17" s="16"/>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5"/>
@@ -1388,7 +1443,7 @@
     </row>
     <row r="18" spans="2:9" ht="63.75">
       <c r="B18" s="18"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6" t="s">
         <v>43</v>
@@ -1410,7 +1465,7 @@
       <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="28" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5"/>
@@ -1432,7 +1487,7 @@
     </row>
     <row r="20" spans="2:9" ht="25.5">
       <c r="B20" s="17"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -1452,7 +1507,7 @@
     </row>
     <row r="21" spans="2:9" ht="63.75">
       <c r="B21" s="21"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="5"/>
@@ -1474,7 +1529,7 @@
     </row>
     <row r="22" spans="2:9" ht="38.25">
       <c r="B22" s="22"/>
-      <c r="C22" s="26"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
@@ -1495,10 +1550,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="5"/>
@@ -1519,8 +1574,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6" t="s">
         <v>47</v>
@@ -1539,8 +1594,8 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="30"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="5"/>
@@ -1561,8 +1616,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="30"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
         <v>28</v>
@@ -1581,8 +1636,8 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="30"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
         <v>29</v>
@@ -1596,13 +1651,13 @@
       <c r="H27" s="8">
         <v>20</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="30"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
@@ -1616,11 +1671,11 @@
       <c r="H28" s="8">
         <v>10</v>
       </c>
-      <c r="I28" s="37"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
         <v>32</v>
@@ -1634,18 +1689,10 @@
       <c r="H29" s="8">
         <v>50</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
@@ -1653,6 +1700,14 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C25:C29"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,10 +1717,608 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5">
+      <c r="A7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="154.5" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8">
+        <v>85</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="108.75" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>80</v>
+      </c>
+      <c r="G9" s="8">
+        <v>90</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="106.5" customHeight="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>81</v>
+      </c>
+      <c r="G10" s="8">
+        <v>92</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51">
+      <c r="A12" s="35"/>
+      <c r="B12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75" customHeight="1">
+      <c r="A13" s="36"/>
+      <c r="B13" s="30"/>
+      <c r="D13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>82</v>
+      </c>
+      <c r="G13" s="8">
+        <v>94</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="114.75">
+      <c r="A14" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <v>20</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.5" customHeight="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="102">
+      <c r="A16" s="47"/>
+      <c r="B16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>72</v>
+      </c>
+      <c r="G17" s="8">
+        <v>84</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="63.75">
+      <c r="A18" s="44"/>
+      <c r="B18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>68</v>
+      </c>
+      <c r="G18" s="8">
+        <v>77</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>32</v>
+      </c>
+      <c r="G19" s="8">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>63</v>
+      </c>
+      <c r="G20" s="8">
+        <v>75</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>71</v>
+      </c>
+      <c r="G21" s="8">
+        <v>83</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="51" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>80</v>
+      </c>
+      <c r="G23" s="8">
+        <v>90</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
+        <v>20</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>25</v>
+      </c>
+      <c r="G25" s="8">
+        <v>10</v>
+      </c>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="8">
+        <v>100</v>
+      </c>
+      <c r="G26" s="8">
+        <v>50</v>
+      </c>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="102.75" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="30"/>
+      <c r="D28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="58.5" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1751,10 +2404,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1"/>
@@ -1765,8 +2418,8 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="33" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="1"/>
       <c r="E8" s="6" t="s">
         <v>27</v>
@@ -1776,8 +2429,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="7"/>
@@ -1788,8 +2441,8 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
@@ -1800,10 +2453,10 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="5"/>
@@ -1814,8 +2467,8 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
@@ -1824,8 +2477,8 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="38"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="5"/>
@@ -1836,8 +2489,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
@@ -1847,7 +2500,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="16"/>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="5"/>
@@ -1859,7 +2512,7 @@
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="26"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
@@ -1881,7 +2534,7 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C18" s="5"/>
@@ -1893,7 +2546,7 @@
     </row>
     <row r="19" spans="1:8" ht="30.75" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
@@ -1902,10 +2555,10 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="5"/>
@@ -1916,8 +2569,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -1926,8 +2579,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="30"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="48" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="5"/>
@@ -1938,8 +2591,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
@@ -1948,37 +2601,43 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="40"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="A20:A26"/>
@@ -1986,12 +2645,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -7,12 +7,11 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Matriz Estrateg General" sheetId="18396" r:id="rId1"/>
-    <sheet name="Matriz Estrategica General mod" sheetId="18398" r:id="rId2"/>
-    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId3"/>
+    <sheet name="Matriz Estrategica General mod" sheetId="18398" r:id="rId1"/>
+    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="F1._Generar_mayor_rentabilidad__Objetivo">'[1]CMI-CE'!$E$8</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>%</t>
   </si>
@@ -62,9 +61,6 @@
     <t>Iniciativas</t>
   </si>
   <si>
-    <t>Interna</t>
-  </si>
-  <si>
     <t>Personal</t>
   </si>
   <si>
@@ -74,12 +70,6 @@
     <t>EMPRESA: INEI</t>
   </si>
   <si>
-    <t>R1. Supervisar los gastos y cumplir con el presupuesto financiero</t>
-  </si>
-  <si>
-    <t>R2. Disponer de una infraestructura tecnológica adecuada para la producción de sus actividades estadísticas</t>
-  </si>
-  <si>
     <t>C1. Institucionalizar la participación de los usuarios en la producción estadística</t>
   </si>
   <si>
@@ -92,12 +82,6 @@
     <t>I3. Desarrollar la cultura estadística para mejorar su uso y facilitar la obtención de información</t>
   </si>
   <si>
-    <t>P1. Fortalecer el liderazgo y posicionamiento del INEI</t>
-  </si>
-  <si>
-    <t>P2. Fortalecer las capacidades del personal del INEI</t>
-  </si>
-  <si>
     <t>Base Dic 2011</t>
   </si>
   <si>
@@ -233,12 +217,6 @@
     <t>C2.2 Actualizar permanentemente la cartografía censal para brindar mayor precisión en la representación de la información estadística y geográfica</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>R1.1 Evaluar los requerimientos vinculados a los servicios requeridos por la comunidad</t>
   </si>
   <si>
@@ -248,9 +226,6 @@
     <t>R1.2 Validar las solicitudes de compra con el respaldo de la evidencia respectiva                                                    R1.3 Establecer que unidades operativas no cuentan con los insumos necesarios para brindar servicios en calidad y cantidad</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>C1.a Encuestas que midan el nivel de satisfacción de los usuarios</t>
   </si>
   <si>
@@ -266,9 +241,6 @@
     <t>MATRIZ ESTRATÉGICA GENERAL</t>
   </si>
   <si>
-    <t>MATRIZ ESTRATÉGICA FUNCIONAL</t>
-  </si>
-  <si>
     <t>Reducir los costos de servicio con una adecuada, eficiente y óptima prestación del servicio requerido</t>
   </si>
   <si>
@@ -318,6 +290,57 @@
   </si>
   <si>
     <t>A2. Fortalecer las capacidades del personal del INEI</t>
+  </si>
+  <si>
+    <t>MATRIZ ESTRATÉGICA FUNCIONAL OTIN - INEI</t>
+  </si>
+  <si>
+    <t>F3. Licencias de software pagadas</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>F1. Gastos en publicidad de servicios</t>
+  </si>
+  <si>
+    <t>F2. Gastos en publicidad de actividades actuales</t>
+  </si>
+  <si>
+    <t>8,000.00</t>
+  </si>
+  <si>
+    <t>5,000.00</t>
+  </si>
+  <si>
+    <t>100,000,00</t>
+  </si>
+  <si>
+    <t>250,000.00</t>
+  </si>
+  <si>
+    <t>F2.1 Establecer Plan de mercadotecnia para promocionar los Censos y/o encuestas desarrollados</t>
+  </si>
+  <si>
+    <t>F1.1 Establecer Plan de mercadotecnia para publicitar los servicios ofrecidos através de redes sociales</t>
+  </si>
+  <si>
+    <t>F3.1 Evaluar Software usados a fin de priorizar los más convenientes</t>
+  </si>
+  <si>
+    <t>F4. Programas Open source</t>
+  </si>
+  <si>
+    <t>F4.1 Definir procedimientos para establecer Politica de uso y desarrollo y software libre en la Institución</t>
   </si>
 </sst>
 </file>
@@ -456,7 +479,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,6 +554,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -540,42 +569,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -585,20 +605,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1108,619 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="38.25">
-      <c r="B7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="89.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="38.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.24</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="38.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="89.25">
-      <c r="B11" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>75</v>
-      </c>
-      <c r="H11" s="8">
-        <v>85</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="63.75">
-      <c r="B12" s="38"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>80</v>
-      </c>
-      <c r="H12" s="8">
-        <v>90</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="63.75">
-      <c r="B13" s="38"/>
-      <c r="C13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>81</v>
-      </c>
-      <c r="H13" s="8">
-        <v>92</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="51">
-      <c r="B14" s="38"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8">
-        <v>8</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="54" customHeight="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>16</v>
-      </c>
-      <c r="H15" s="8">
-        <v>9</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="54" customHeight="1">
-      <c r="B16" s="40"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>82</v>
-      </c>
-      <c r="H16" s="8">
-        <v>94</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="114.75">
-      <c r="B17" s="16"/>
-      <c r="C17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="8">
-        <v>10</v>
-      </c>
-      <c r="H17" s="8">
-        <v>20</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="63.75">
-      <c r="B18" s="18"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>22</v>
-      </c>
-      <c r="H18" s="8">
-        <v>13</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="89.25">
-      <c r="B19" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="8">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="25.5">
-      <c r="B20" s="17"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>72</v>
-      </c>
-      <c r="H20" s="8">
-        <v>84</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="63.75">
-      <c r="B21" s="21"/>
-      <c r="C21" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>68</v>
-      </c>
-      <c r="H21" s="8">
-        <v>77</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="38.25">
-      <c r="B22" s="22"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>32</v>
-      </c>
-      <c r="H22" s="8">
-        <v>16</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1">
-      <c r="B23" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>63</v>
-      </c>
-      <c r="H23" s="8">
-        <v>75</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="51">
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>71</v>
-      </c>
-      <c r="H24" s="8">
-        <v>83</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="38.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="38.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>80</v>
-      </c>
-      <c r="H26" s="8">
-        <v>90</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="30" customHeight="1">
-      <c r="B27" s="32"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>30</v>
-      </c>
-      <c r="H27" s="8">
-        <v>20</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="30" customHeight="1">
-      <c r="B28" s="32"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8">
-        <v>10</v>
-      </c>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="2:9" ht="30" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="8">
-        <v>100</v>
-      </c>
-      <c r="H29" s="8">
-        <v>50</v>
-      </c>
-      <c r="I29" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C7:C8"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1733,7 +1153,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1755,7 +1175,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1798,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>3</v>
@@ -1811,12 +1231,12 @@
       <c r="A8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>15</v>
+      <c r="B8" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>0</v>
@@ -1828,15 +1248,15 @@
         <v>85</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="108.75" customHeight="1">
       <c r="A9" s="35"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>0</v>
@@ -1848,17 +1268,17 @@
         <v>90</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="106.5" customHeight="1">
       <c r="A10" s="35"/>
-      <c r="B10" s="28" t="s">
-        <v>40</v>
+      <c r="B10" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>0</v>
@@ -1870,15 +1290,15 @@
         <v>92</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="76.5" customHeight="1">
       <c r="A11" s="35"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -1890,16 +1310,16 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51">
       <c r="A12" s="35"/>
-      <c r="B12" s="28" t="s">
-        <v>16</v>
+      <c r="B12" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -1911,14 +1331,14 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1">
       <c r="A13" s="36"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="31"/>
       <c r="D13" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>0</v>
@@ -1930,22 +1350,22 @@
         <v>94</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="114.75">
-      <c r="A14" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>36</v>
+      <c r="A14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F14" s="8">
         <v>10</v>
@@ -1954,15 +1374,15 @@
         <v>20</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>0</v>
@@ -1974,20 +1394,20 @@
         <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102">
-      <c r="A16" s="47"/>
-      <c r="B16" s="26" t="s">
-        <v>17</v>
+      <c r="A16" s="33"/>
+      <c r="B16" s="28" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -1996,15 +1416,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>0</v>
@@ -2016,17 +1436,17 @@
         <v>84</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="44"/>
-      <c r="B18" s="28" t="s">
-        <v>18</v>
+      <c r="A18" s="37"/>
+      <c r="B18" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>0</v>
@@ -2038,15 +1458,15 @@
         <v>77</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
@@ -2058,17 +1478,17 @@
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="28" t="s">
-        <v>93</v>
+      <c r="B20" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>0</v>
@@ -2080,15 +1500,15 @@
         <v>75</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="61.5" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>0</v>
@@ -2100,39 +1520,39 @@
         <v>83</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>0</v>
@@ -2144,15 +1564,15 @@
         <v>90</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>0</v>
@@ -2163,16 +1583,16 @@
       <c r="G24" s="8">
         <v>20</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>34</v>
+      <c r="H24" s="40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="29"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>0</v>
@@ -2183,19 +1603,19 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="B26" s="31"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F26" s="8">
         <v>100</v>
@@ -2203,17 +1623,17 @@
       <c r="G26" s="8">
         <v>50</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A27" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>91</v>
+      <c r="A27" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
@@ -2225,14 +1645,14 @@
         <v>0.9</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="31"/>
       <c r="D28" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>0</v>
@@ -2244,17 +1664,17 @@
         <v>0.9</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A29" s="32"/>
-      <c r="B29" s="28" t="s">
-        <v>92</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>0</v>
@@ -2266,15 +1686,15 @@
         <v>0.12</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58.5" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>0</v>
@@ -2286,11 +1706,19 @@
         <v>0.2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A14:A17"/>
@@ -2298,14 +1726,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2313,23 +1733,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2351,7 +1772,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2394,70 +1815,107 @@
         <v>5</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="71.25" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>69</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="33" customHeight="1">
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="79.5" customHeight="1">
       <c r="A8" s="35"/>
-      <c r="B8" s="27"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="1"/>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54.75" customHeight="1">
       <c r="A9" s="35"/>
-      <c r="B9" s="28" t="s">
-        <v>83</v>
+      <c r="B9" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" ht="33.75" customHeight="1">
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="61.5" customHeight="1">
       <c r="A10" s="36"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>79</v>
+      <c r="B11" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -2466,20 +1924,22 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="39"/>
-      <c r="B13" s="28" t="s">
-        <v>81</v>
+    <row r="13" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
@@ -2489,19 +1949,21 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="27" customHeight="1">
       <c r="A15" s="16"/>
-      <c r="B15" s="28" t="s">
-        <v>82</v>
+      <c r="B15" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -2512,7 +1974,7 @@
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
@@ -2523,7 +1985,7 @@
     <row r="17" spans="1:8" ht="29.25" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -2534,8 +1996,8 @@
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="26" t="s">
-        <v>80</v>
+      <c r="B18" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
@@ -2546,7 +2008,7 @@
     </row>
     <row r="19" spans="1:8" ht="30.75" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="27"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
@@ -2555,11 +2017,11 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>85</v>
+      <c r="A20" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -2569,8 +2031,8 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="33" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -2579,9 +2041,9 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
-      <c r="B22" s="48" t="s">
-        <v>86</v>
+      <c r="A22" s="44"/>
+      <c r="B22" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -2591,8 +2053,8 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="32"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
@@ -2601,43 +2063,37 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="48"/>
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="1:8" ht="27" customHeight="1">
+      <c r="A25" s="44"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="48"/>
+      <c r="H26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="A20:A26"/>
@@ -2645,6 +2101,12 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
@@ -27,12 +27,12 @@
     <definedName name="P1._Crear_mística_y_nueva_cultura_organizativa__Objetivo">'[1]CMI-CE'!$E$77</definedName>
     <definedName name="P2._Desarrollar_liderazgo_en_todos_los_niveles_de_mando__Objetivo">'[1]CMI-CE'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
   <si>
     <t>%</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Iniciativas</t>
   </si>
   <si>
-    <t>Personal</t>
-  </si>
-  <si>
     <t>Financiera</t>
   </si>
   <si>
@@ -341,6 +338,15 @@
   </si>
   <si>
     <t>F4.1 Definir procedimientos para establecer Politica de uso y desarrollo y software libre en la Institución</t>
+  </si>
+  <si>
+    <t>APRENDIZAJE</t>
+  </si>
+  <si>
+    <t>PROCESO INTERNO</t>
+  </si>
+  <si>
+    <t>Cliente</t>
   </si>
 </sst>
 </file>
@@ -548,16 +554,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,12 +599,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,47 +614,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1153,7 +1159,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1175,7 +1181,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1218,25 +1224,25 @@
         <v>5</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>12</v>
+      <c r="B8" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>0</v>
@@ -1247,16 +1253,16 @@
       <c r="G8" s="8">
         <v>85</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>18</v>
+      <c r="H8" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="108.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>0</v>
@@ -1268,17 +1274,17 @@
         <v>90</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="30" t="s">
-        <v>35</v>
+      <c r="A10" s="42"/>
+      <c r="B10" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>0</v>
@@ -1290,15 +1296,15 @@
         <v>92</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -1310,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="35"/>
-      <c r="B12" s="30" t="s">
-        <v>13</v>
+      <c r="A12" s="42"/>
+      <c r="B12" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -1331,14 +1337,14 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="30"/>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>0</v>
@@ -1350,22 +1356,22 @@
         <v>94</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="114.75">
-      <c r="A14" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>31</v>
+      <c r="A14" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8">
         <v>10</v>
@@ -1374,15 +1380,15 @@
         <v>20</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>0</v>
@@ -1394,20 +1400,20 @@
         <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28" t="s">
-        <v>14</v>
+      <c r="A16" s="40"/>
+      <c r="B16" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -1416,15 +1422,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>0</v>
@@ -1436,17 +1442,17 @@
         <v>84</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="37"/>
-      <c r="B18" s="30" t="s">
-        <v>15</v>
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>0</v>
@@ -1458,15 +1464,15 @@
         <v>77</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
@@ -1478,17 +1484,17 @@
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="30" t="s">
-        <v>84</v>
+      <c r="B20" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>0</v>
@@ -1500,15 +1506,15 @@
         <v>75</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="61.5" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>0</v>
@@ -1520,39 +1526,39 @@
         <v>83</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>67</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>0</v>
@@ -1564,15 +1570,15 @@
         <v>90</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>0</v>
@@ -1583,16 +1589,16 @@
       <c r="G24" s="8">
         <v>20</v>
       </c>
-      <c r="H24" s="40" t="s">
-        <v>29</v>
+      <c r="H24" s="32" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="39"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>0</v>
@@ -1603,19 +1609,19 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
-      <c r="H25" s="41"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="B26" s="30"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="8">
         <v>100</v>
@@ -1623,17 +1629,17 @@
       <c r="G26" s="8">
         <v>50</v>
       </c>
-      <c r="H26" s="42"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>82</v>
+      <c r="A27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
@@ -1645,14 +1651,14 @@
         <v>0.9</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="102.75" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="30"/>
+      <c r="D28" s="6" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="31"/>
-      <c r="D28" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>0</v>
@@ -1664,17 +1670,17 @@
         <v>0.9</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="30" t="s">
-        <v>83</v>
+      <c r="A29" s="36"/>
+      <c r="B29" s="29" t="s">
+        <v>82</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>0</v>
@@ -1686,15 +1692,15 @@
         <v>0.12</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58.5" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="31"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>0</v>
@@ -1706,16 +1712,11 @@
         <v>0.2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -1726,6 +1727,11 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1735,14 +1741,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" customWidth="1"/>
@@ -1750,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1772,7 +1779,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1815,177 +1822,187 @@
         <v>5</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>69</v>
+      <c r="A7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>95</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="79.5" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30" t="s">
-        <v>74</v>
+      <c r="A9" s="42"/>
+      <c r="B9" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>91</v>
-      </c>
       <c r="H9" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>70</v>
+    </row>
+    <row r="11" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A11" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="55.5" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="30" t="s">
-        <v>72</v>
+      <c r="A13" s="21"/>
+      <c r="B13" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="31"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="30" t="s">
-        <v>73</v>
+      <c r="A15" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24" t="s">
-        <v>75</v>
+    <row r="17" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A17" s="49"/>
+      <c r="B17" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
@@ -1994,11 +2011,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="28" t="s">
-        <v>71</v>
-      </c>
+    <row r="18" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A18" s="49"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
@@ -2006,9 +2021,11 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="29"/>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="49"/>
+      <c r="B19" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5"/>
@@ -2016,13 +2033,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>76</v>
-      </c>
+    <row r="20" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A20" s="50"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
@@ -2030,9 +2043,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="31"/>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>75</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -2040,76 +2057,87 @@
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="44"/>
-      <c r="B22" s="49" t="s">
-        <v>77</v>
-      </c>
+    <row r="22" spans="1:8" ht="33" customHeight="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="44"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="44" t="s">
+        <v>76</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="44"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="1:8" ht="27" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="49"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="36"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="1:8" hidden="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="49"/>
+      <c r="H25" s="44"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" customHeight="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="49"/>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
+      <c r="A27" s="45"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747" activeTab="1"/>
@@ -27,12 +27,12 @@
     <definedName name="P1._Crear_mística_y_nueva_cultura_organizativa__Objetivo">'[1]CMI-CE'!$E$77</definedName>
     <definedName name="P2._Desarrollar_liderazgo_en_todos_los_niveles_de_mando__Objetivo">'[1]CMI-CE'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>%</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Formular directivas y estándares para el desarrollo de sistemas, bases de datos y administración de los recursos informáticos</t>
   </si>
   <si>
-    <t>Crear, configurar e implementar base de datos y banco de datos del INEI</t>
-  </si>
-  <si>
     <t>Implementar "Politica pública para el uso y desarrollo de software libre en la administración pública"</t>
   </si>
   <si>
@@ -292,21 +289,6 @@
     <t>MATRIZ ESTRATÉGICA FUNCIONAL OTIN - INEI</t>
   </si>
   <si>
-    <t>F3. Licencias de software pagadas</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>F1. Gastos en publicidad de servicios</t>
   </si>
   <si>
@@ -331,15 +313,6 @@
     <t>F1.1 Establecer Plan de mercadotecnia para publicitar los servicios ofrecidos através de redes sociales</t>
   </si>
   <si>
-    <t>F3.1 Evaluar Software usados a fin de priorizar los más convenientes</t>
-  </si>
-  <si>
-    <t>F4. Programas Open source</t>
-  </si>
-  <si>
-    <t>F4.1 Definir procedimientos para establecer Politica de uso y desarrollo y software libre en la Institución</t>
-  </si>
-  <si>
     <t>APRENDIZAJE</t>
   </si>
   <si>
@@ -347,6 +320,63 @@
   </si>
   <si>
     <t>Cliente</t>
+  </si>
+  <si>
+    <t>I7. Licencias propietarias</t>
+  </si>
+  <si>
+    <t>I7.1 Reducir el # de Licencias propietarias en la Organización a fin de minorizar los costos</t>
+  </si>
+  <si>
+    <t>I8.1 Incrementar el # de Sistemas desarrollados bajo la Política Open source</t>
+  </si>
+  <si>
+    <t>I8. Sistemas desarrollados en Open Source</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>Gestionar base de datos y banco de datos del INEI</t>
+  </si>
+  <si>
+    <t>I1 Casos de prueba</t>
+  </si>
+  <si>
+    <t>I1.1 Definir casos de prueba para una mejor gestión del Banco de datos</t>
+  </si>
+  <si>
+    <t>I2 Crecimiento en población de datos</t>
+  </si>
+  <si>
+    <t>I2.1 Monitorear el crecimiento del Banco de datos en base a los Proyectos programados en el año</t>
+  </si>
+  <si>
+    <t>C3. Estándares propuestos bajo Resolución</t>
+  </si>
+  <si>
+    <t>C1. Tipos de procesamiento de datos</t>
+  </si>
+  <si>
+    <t>C2. Digitalización terciarizada</t>
+  </si>
+  <si>
+    <t>C1.1 Planificar y establecer los Tipos de procesamiento a implementar durante los proyectos anuales</t>
+  </si>
+  <si>
+    <t>C2.1 Determinar la terciarización del proceso de digitalización de datos a fin de tener un mejor manejo de costos</t>
+  </si>
+  <si>
+    <t>C4 Estándares suheridos por ONGEI</t>
   </si>
 </sst>
 </file>
@@ -485,7 +515,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,6 +593,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,61 +615,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1145,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1234,10 +1261,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
@@ -1258,8 +1285,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="108.75" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
         <v>18</v>
@@ -1278,8 +1305,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="7"/>
@@ -1300,8 +1327,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
         <v>58</v>
@@ -1320,8 +1347,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="42"/>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1341,8 +1368,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
@@ -1360,10 +1387,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="114.75">
-      <c r="A14" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="A14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
@@ -1384,8 +1411,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
         <v>37</v>
@@ -1404,8 +1431,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="102">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5"/>
@@ -1426,8 +1453,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
         <v>32</v>
@@ -1446,8 +1473,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
@@ -1468,8 +1495,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
         <v>47</v>
@@ -1489,8 +1516,8 @@
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="29" t="s">
-        <v>83</v>
+      <c r="B20" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
@@ -1511,7 +1538,7 @@
     </row>
     <row r="21" spans="1:8" ht="61.5" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
         <v>41</v>
@@ -1531,10 +1558,10 @@
     </row>
     <row r="22" spans="1:8" ht="57.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
@@ -1555,7 +1582,7 @@
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
         <v>22</v>
@@ -1575,7 +1602,7 @@
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
         <v>23</v>
@@ -1589,13 +1616,13 @@
       <c r="G24" s="8">
         <v>20</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
         <v>24</v>
@@ -1613,9 +1640,9 @@
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="32"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
         <v>26</v>
@@ -1629,14 +1656,14 @@
       <c r="G26" s="8">
         <v>50</v>
       </c>
-      <c r="H26" s="34"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>81</v>
+      <c r="A27" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>64</v>
@@ -1655,8 +1682,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="30"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="32"/>
       <c r="D28" s="6" t="s">
         <v>61</v>
       </c>
@@ -1674,9 +1701,9 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="29" t="s">
-        <v>82</v>
+      <c r="A29" s="42"/>
+      <c r="B29" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
@@ -1696,8 +1723,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="58.5" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
         <v>49</v>
@@ -1717,21 +1744,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="H24:H26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1743,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1757,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1832,100 +1859,102 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="79.5" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54.75" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="7"/>
+      <c r="B9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="6" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="61.5" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A11" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>69</v>
+      <c r="F10" s="8">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="63.75" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1933,11 +1962,13 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="30"/>
+    <row r="12" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1945,110 +1976,150 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="29" t="s">
-        <v>71</v>
+    <row r="13" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A13" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="30"/>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A14" s="46"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="27" customHeight="1">
-      <c r="A15" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.35</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="30"/>
+    <row r="16" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="32" t="s">
-        <v>74</v>
+    <row r="17" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="34"/>
+    <row r="18" spans="1:8" ht="39" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="49"/>
-      <c r="B19" s="37" t="s">
-        <v>70</v>
+    <row r="19" spans="1:8" ht="72" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="38"/>
+      <c r="D19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>500</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="8">
+        <v>120</v>
+      </c>
+      <c r="G20" s="8">
+        <v>150</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>75</v>
+      <c r="A21" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -2058,8 +2129,8 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="33" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5"/>
@@ -2068,9 +2139,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="44" t="s">
-        <v>76</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -2080,8 +2151,8 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="36"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
@@ -2090,50 +2161,50 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="44"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" ht="38.25" customHeight="1">
+      <c r="A26" s="42"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="44"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" hidden="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="44"/>
+      <c r="H27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
+++ b/trunk/ tsp01-contratos-clientes/BSC/Matriz Estratégica - INEI.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Matriz Estrategica General mod" sheetId="18398" r:id="rId1"/>
-    <sheet name="Matriz Estrateg Funcional" sheetId="18397" r:id="rId2"/>
+    <sheet name="Matriz Estrategica Funcion mod" sheetId="18399" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
   <si>
     <t>%</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Iniciativas</t>
   </si>
   <si>
-    <t>Financiera</t>
-  </si>
-  <si>
     <t>EMPRESA: INEI</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>2'000,000.000</t>
   </si>
   <si>
-    <t>MATRIZ ESTRATÉGICA GENERAL</t>
-  </si>
-  <si>
     <t>Reducir los costos de servicio con una adecuada, eficiente y óptima prestación del servicio requerido</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
     <t>A2. Fortalecer las capacidades del personal del INEI</t>
   </si>
   <si>
-    <t>MATRIZ ESTRATÉGICA FUNCIONAL OTIN - INEI</t>
-  </si>
-  <si>
     <t>F1. Gastos en publicidad de servicios</t>
   </si>
   <si>
@@ -313,15 +304,6 @@
     <t>F1.1 Establecer Plan de mercadotecnia para publicitar los servicios ofrecidos através de redes sociales</t>
   </si>
   <si>
-    <t>APRENDIZAJE</t>
-  </si>
-  <si>
-    <t>PROCESO INTERNO</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
     <t>I7. Licencias propietarias</t>
   </si>
   <si>
@@ -334,18 +316,6 @@
     <t>I8. Sistemas desarrollados en Open Source</t>
   </si>
   <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I4</t>
-  </si>
-  <si>
-    <t>I5</t>
-  </si>
-  <si>
-    <t>I6</t>
-  </si>
-  <si>
     <t>Gestionar base de datos y banco de datos del INEI</t>
   </si>
   <si>
@@ -361,9 +331,6 @@
     <t>I2.1 Monitorear el crecimiento del Banco de datos en base a los Proyectos programados en el año</t>
   </si>
   <si>
-    <t>C3. Estándares propuestos bajo Resolución</t>
-  </si>
-  <si>
     <t>C1. Tipos de procesamiento de datos</t>
   </si>
   <si>
@@ -376,7 +343,73 @@
     <t>C2.1 Determinar la terciarización del proceso de digitalización de datos a fin de tener un mejor manejo de costos</t>
   </si>
   <si>
-    <t>C4 Estándares suheridos por ONGEI</t>
+    <t>I3 Proyectos programados anualmente</t>
+  </si>
+  <si>
+    <t>I4 Proyectos institucionales</t>
+  </si>
+  <si>
+    <t>I3.1 Coordinar los Proyectos en los que se participará para el desarrollo de Sistemas</t>
+  </si>
+  <si>
+    <t>A1. Investigaciones concretadas</t>
+  </si>
+  <si>
+    <t>A2. Investigaciones propuestas aprobadas</t>
+  </si>
+  <si>
+    <t>I5. Recursos informáticos actuales</t>
+  </si>
+  <si>
+    <t>I6 Contingencias detectadas</t>
+  </si>
+  <si>
+    <t>I5.1 Realizar un inventariado de los recursos informáticos adquiridos durante el año</t>
+  </si>
+  <si>
+    <t>I4.1 Evaluar los proyectos programados anualmente</t>
+  </si>
+  <si>
+    <t>I6.1 Evaluar las contigencias detectadas y reportadas en los diversos proyectos</t>
+  </si>
+  <si>
+    <t>MATRIZ ESTRATÉGICA FUNCIONAL - OTIN</t>
+  </si>
+  <si>
+    <t>MATRIZ ESTRATÉGICA GENERAL - INEI</t>
+  </si>
+  <si>
+    <t>A1.1 Realizar un seguimiento de las investigaciones concretadas a fin de implementarlas</t>
+  </si>
+  <si>
+    <t>A1.2 Realizar el desarrollo de las investigaciones aprobadas para la puesta en marcha de las mismas</t>
+  </si>
+  <si>
+    <t>Aprendizaje y crecimiento</t>
+  </si>
+  <si>
+    <t>C3. Estándares de desarrollo de sistemas propuestos bajo Resolución</t>
+  </si>
+  <si>
+    <t>C4 Estándares de desarrollo de sistemas sugeridos por ONGEI</t>
+  </si>
+  <si>
+    <t>A3. Estándares de de documentación de sistemas bajo Resolución</t>
+  </si>
+  <si>
+    <t>A4 Estándares de documentación de sistemas sugeridos por ONGEI</t>
+  </si>
+  <si>
+    <t>A4.1 Evaluar los estándares de documentación ONGEI a implementar</t>
+  </si>
+  <si>
+    <t>A3.1 Incrementar los estándares de documentación a implementar de acuerdo a las necesidades de la organización</t>
+  </si>
+  <si>
+    <t>C4.1 Evaluar los estándares de desarrollo de sistemas ONGEI a implementar</t>
+  </si>
+  <si>
+    <t>C3.1 Definir los estándares de desarrollo de sistemas a implementar de acuerdo a las necesidades de la organización</t>
   </si>
 </sst>
 </file>
@@ -515,7 +548,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -575,12 +608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,11 +620,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -605,41 +662,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -647,19 +683,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1186,7 +1210,7 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" s="9" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1208,7 +1232,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1251,25 +1275,25 @@
         <v>5</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="154.5" customHeight="1">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>11</v>
+      <c r="B8" s="28" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>0</v>
@@ -1280,16 +1304,16 @@
       <c r="G8" s="8">
         <v>85</v>
       </c>
-      <c r="H8" s="24" t="s">
-        <v>17</v>
+      <c r="H8" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="108.75" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="1"/>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>0</v>
@@ -1301,17 +1325,17 @@
         <v>90</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="106.5" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="31" t="s">
-        <v>34</v>
+      <c r="A10" s="33"/>
+      <c r="B10" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>0</v>
@@ -1323,15 +1347,15 @@
         <v>92</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -1343,16 +1367,16 @@
         <v>8</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="39"/>
-      <c r="B12" s="31" t="s">
-        <v>12</v>
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>0</v>
@@ -1364,14 +1388,14 @@
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="75" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="27"/>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>0</v>
@@ -1383,22 +1407,22 @@
         <v>94</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="114.75">
-      <c r="A14" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>30</v>
+      <c r="A14" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="8">
         <v>10</v>
@@ -1407,15 +1431,15 @@
         <v>20</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>0</v>
@@ -1427,20 +1451,20 @@
         <v>13</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="102">
-      <c r="A16" s="37"/>
-      <c r="B16" s="34" t="s">
-        <v>13</v>
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="8">
         <v>3</v>
@@ -1449,15 +1473,15 @@
         <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>0</v>
@@ -1469,17 +1493,17 @@
         <v>84</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63.75">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31" t="s">
-        <v>14</v>
+      <c r="A18" s="37"/>
+      <c r="B18" s="25" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>0</v>
@@ -1491,15 +1515,15 @@
         <v>77</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="66.75" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>0</v>
@@ -1511,17 +1535,17 @@
         <v>16</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30.75" customHeight="1">
       <c r="A20" s="16"/>
-      <c r="B20" s="31" t="s">
-        <v>82</v>
+      <c r="B20" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>0</v>
@@ -1533,15 +1557,15 @@
         <v>75</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="61.5" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>0</v>
@@ -1553,39 +1577,39 @@
         <v>83</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.75" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>66</v>
-      </c>
       <c r="H22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="51" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>0</v>
@@ -1597,15 +1621,15 @@
         <v>90</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.75" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="33"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>0</v>
@@ -1616,16 +1640,16 @@
       <c r="G24" s="8">
         <v>20</v>
       </c>
-      <c r="H24" s="31" t="s">
-        <v>28</v>
+      <c r="H24" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="33"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>0</v>
@@ -1636,19 +1660,19 @@
       <c r="G25" s="8">
         <v>10</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="32"/>
+        <v>77</v>
+      </c>
+      <c r="B26" s="27"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="8">
         <v>100</v>
@@ -1656,17 +1680,17 @@
       <c r="G26" s="8">
         <v>50</v>
       </c>
-      <c r="H26" s="32"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A27" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>80</v>
+      <c r="A27" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
@@ -1678,14 +1702,14 @@
         <v>0.9</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="102.75" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="27"/>
+      <c r="D28" s="6" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="102.75" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="32"/>
-      <c r="D28" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>0</v>
@@ -1697,17 +1721,17 @@
         <v>0.9</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="31" t="s">
-        <v>81</v>
+      <c r="A29" s="36"/>
+      <c r="B29" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>0</v>
@@ -1719,15 +1743,15 @@
         <v>0.12</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="58.5" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>0</v>
@@ -1739,13 +1763,11 @@
         <v>0.2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="H24:H26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -1753,12 +1775,14 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H24:H26"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1768,46 +1792,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1816,399 +1828,464 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.5">
-      <c r="A6" s="14" t="s">
+    <row r="7" spans="1:8" ht="25.5">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="79.5" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="35"/>
+    <row r="8" spans="1:8" ht="111.75" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54.75" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="99" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="111.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51">
+      <c r="A11" s="33"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="55.5" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5</v>
-      </c>
-      <c r="G10" s="8">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="32"/>
+      <c r="H11" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="38.25">
+      <c r="A12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>94</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A13" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>104</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="58.5" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5"/>
       <c r="D13" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.35</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="32"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="38.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.35</v>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>4</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="43" t="s">
-        <v>73</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44"/>
+        <v>104</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="38.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="44" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43" t="s">
-        <v>70</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="44"/>
+        <v>109</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="72" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>500</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="77.25" customHeight="1">
       <c r="A19" s="46"/>
-      <c r="B19" s="43" t="s">
-        <v>72</v>
-      </c>
+      <c r="B19" s="45"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="8">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="G19" s="8">
-        <v>500</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="53.25" customHeight="1">
-      <c r="A20" s="47"/>
-      <c r="B20" s="44"/>
+        <v>150</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51">
+      <c r="A20" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>25</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G20" s="8">
+        <v>35</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="51">
+      <c r="A21" s="42"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <v>10</v>
+      </c>
+      <c r="G21" s="19">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="8">
-        <v>150</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="42"/>
-      <c r="B23" s="48" t="s">
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="58.5" customHeight="1">
+      <c r="A23" s="43"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1">
+      <c r="A24" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="42"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="42"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="1:8" ht="38.25" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" hidden="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="48"/>
+      <c r="B24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="55.5" customHeight="1">
+      <c r="A25" s="36"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>